--- a/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
+++ b/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,167 +439,70 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Split</t>
+          <t>Class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Percent</t>
+          <t>Test</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
           <t>Convertible</t>
         </is>
       </c>
+      <c r="B2" s="2" t="n">
+        <v>1140</v>
+      </c>
       <c r="C2" s="2" t="n">
-        <v>1140</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>18.99050474762619</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
           <t>Pickup</t>
         </is>
       </c>
+      <c r="B3" s="2" t="n">
+        <v>713</v>
+      </c>
       <c r="C3" s="2" t="n">
-        <v>713</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>11.87739463601533</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
           <t>SUV</t>
         </is>
       </c>
+      <c r="B4" s="2" t="n">
+        <v>1616</v>
+      </c>
       <c r="C4" s="2" t="n">
-        <v>1616</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>26.91987339663501</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Train</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
           <t>Sedan</t>
         </is>
       </c>
+      <c r="B5" s="2" t="n">
+        <v>2534</v>
+      </c>
       <c r="C5" s="2" t="n">
-        <v>2534</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>42.21222721972347</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Convertible</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>18.73740765614506</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>12.69308260577569</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>SUV</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>441</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>29.61719274680994</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Sedan</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
         <v>580</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>38.95231699126931</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
+++ b/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,16 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -465,6 +475,14 @@
       <c r="C2" s="2" t="n">
         <v>279</v>
       </c>
+      <c r="D2" s="2" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>18.94%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -478,6 +496,14 @@
       <c r="C3" s="2" t="n">
         <v>189</v>
       </c>
+      <c r="D3" s="2" t="n">
+        <v>902</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>12.04%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -491,6 +517,14 @@
       <c r="C4" s="2" t="n">
         <v>441</v>
       </c>
+      <c r="D4" s="2" t="n">
+        <v>2057</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.46%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -503,6 +537,14 @@
       </c>
       <c r="C5" s="2" t="n">
         <v>580</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3114</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41.56%</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
+++ b/Output/Class Statistics/Finalized/test_train_class_cnts.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>6003</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1489</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7492</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
